--- a/data/Spreadsheet_Data/CharacterRestricted.xlsx
+++ b/data/Spreadsheet_Data/CharacterRestricted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2609823-13B7-9444-8733-A27026E3AD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D202E2-4BAE-B743-9DE8-0F74070F3282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23360" yWindow="5500" windowWidth="26440" windowHeight="15440" xr2:uid="{4CE7EAC0-AF4C-364C-B9F9-78C88ABCDD31}"/>
+    <workbookView xWindow="43480" yWindow="500" windowWidth="26440" windowHeight="15440" xr2:uid="{4CE7EAC0-AF4C-364C-B9F9-78C88ABCDD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
-    <t>hasBirthday</t>
-  </si>
-  <si>
     <t>09.07.1990</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>23.09.1983</t>
   </si>
   <si>
-    <t>hasId</t>
-  </si>
-  <si>
     <t>H_017</t>
   </si>
   <si>
@@ -174,6 +168,12 @@
   </si>
   <si>
     <t>H_008</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -564,197 +564,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D342DB-B9CB-8C45-AA06-38426F63F68C}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>